--- a/result/sst_vit_result_2.xlsx
+++ b/result/sst_vit_result_2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,268 +461,278 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>model_image_size</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>360</v>
+          <t>model_load_weights</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>model_patch_size</t>
+          <t>model_image_size</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>model_num_layers</t>
+          <t>model_patch_size</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>model_num_heads</t>
+          <t>model_num_layers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>model_hidden_dim</t>
+          <t>model_num_heads</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>512</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>model_mlp_dim</t>
+          <t>model_hidden_dim</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2048</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>model_num_classes</t>
+          <t>model_mlp_dim</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64800</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>data_file_path</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>./sst_weekly.mat</t>
-        </is>
+          <t>model_num_classes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>64800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>training_batch_size</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
+          <t>data_file_path</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>./sst_weekly.mat</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>training_learning_rate</t>
+          <t>training_batch_size</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>training_start_point</t>
+          <t>training_learning_rate</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>training_sensor_num</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[10, 20, 30, 50, 100]</t>
-        </is>
+          <t>training_start_point</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>training_sensor_seed</t>
+          <t>training_sensor_num</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[4, 20, 75, 138, 278]</t>
+          <t>[10]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>training_sigma</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.05</v>
+          <t>training_sensor_seed</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[4, 20, 75, 138, 278]</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>training_input_type</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>VIT</t>
-        </is>
+          <t>training_sigma</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>testing_batch_size</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
+          <t>training_input_type</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>testing_start_point</t>
+          <t>testing_batch_size</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>testing_norm</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
+          <t>testing_start_point</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1098</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>testing_sensor_num</t>
+          <t>testing_norm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[10, 20, 30, 50, 70, 100, 200]</t>
+          <t>L2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>testing_sensor_seed</t>
+          <t>testing_sensor_num</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[553, 897, 1016, 1255, 1437]</t>
+          <t>[10, 20, 30, 50, 70, 100, 200]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>testing_sigma</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.05</v>
+          <t>testing_sensor_seed</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[553, 897, 1016, 1255, 1437]</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>testing_input_type</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>VIT</t>
-        </is>
+          <t>testing_sigma</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>device_prefer_gpu</t>
-        </is>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
+          <t>testing_input_type</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>output_model_result</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>sst_vit_result_2</t>
-        </is>
+          <t>device_prefer_gpu</t>
+        </is>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>output_model_result</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>sst_vit_result_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>output_model_save_path</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>model/sst_vit_test_2.pth</t>
         </is>
@@ -739,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,7 +770,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>trained_max</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>trained_min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>untrained_results</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>untrained_max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>untrained_min</t>
         </is>
       </c>
     </row>
@@ -769,10 +799,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002880317158997059</v>
+        <v>0.07004196763038635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002880084095522761</v>
+        <v>0.09366726875305176</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05445156618952751</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.07023992739617825</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09456393867731094</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05450471118092537</v>
       </c>
     </row>
     <row r="3">
@@ -780,10 +822,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002880314830690622</v>
+        <v>0.07007142327725888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00288026942871511</v>
+        <v>0.09369593113660812</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05446174740791321</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.07019838139414787</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.09407638758420944</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05442548915743828</v>
       </c>
     </row>
     <row r="4">
@@ -791,10 +845,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002880305983126163</v>
+        <v>0.07019385397434234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002880240324884653</v>
+        <v>0.09387151151895523</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05459060519933701</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07011643938720226</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.09388794749975204</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05449264496564865</v>
       </c>
     </row>
     <row r="5">
@@ -802,10 +868,22 @@
         <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002880320884287357</v>
+        <v>0.07029493764042855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002880355110391974</v>
+        <v>0.09401628375053406</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05469972640275955</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.070098966807127</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.09373018890619278</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0545038990676403</v>
       </c>
     </row>
     <row r="6">
@@ -813,10 +891,22 @@
         <v>70</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002880339045077562</v>
+        <v>0.07022016398608684</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002880351152271032</v>
+        <v>0.09379326552152634</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05470617115497589</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07020522885024548</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09401290863752365</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05461164563894272</v>
       </c>
     </row>
     <row r="7">
@@ -824,10 +914,22 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002880325308069587</v>
+        <v>0.07020819805562496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002880341373383999</v>
+        <v>0.0939960852265358</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05459249019622803</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.07018831253051758</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.09392796456813812</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05456054210662842</v>
       </c>
     </row>
     <row r="8">
@@ -835,10 +937,22 @@
         <v>200</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002880311338230968</v>
+        <v>0.07020115755498409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00288031087256968</v>
+        <v>0.09400267899036407</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05465942621231079</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07039075188338756</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.09404829889535904</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0547582320868969</v>
       </c>
     </row>
   </sheetData>

--- a/result/sst_vit_result_2.xlsx
+++ b/result/sst_vit_result_2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64800</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="11">
@@ -553,186 +553,206 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>training_batch_size</t>
+          <t>training_fig_num</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>training_learning_rate</t>
+          <t>training_batch_size</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>training_start_point</t>
+          <t>training_learning_rate</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>training_sensor_num</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[10]</t>
-        </is>
+          <t>training_start_point</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>training_sensor_seed</t>
+          <t>training_sensor_num</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[4, 20, 75, 138, 278]</t>
+          <t>[10]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>training_sigma</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.05</v>
+          <t>training_sensor_seed</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>training_input_type</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>VIT</t>
-        </is>
+          <t>training_sigma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>testing_batch_size</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
+          <t>training_input_type</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>testing_start_point</t>
+          <t>testing_fig_num</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1098</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>testing_norm</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
+          <t>testing_batch_size</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>testing_sensor_num</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[10, 20, 30, 50, 70, 100, 200]</t>
-        </is>
+          <t>testing_start_point</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>testing_sensor_seed</t>
+          <t>testing_norm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[553, 897, 1016, 1255, 1437]</t>
+          <t>L2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>testing_sigma</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.05</v>
+          <t>testing_sensor_num</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[20, 50, 100]</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>testing_input_type</t>
+          <t>testing_sensor_seed</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>[553, 897]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>device_prefer_gpu</t>
-        </is>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
+          <t>testing_sigma</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>output_model_result</t>
+          <t>testing_input_type</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sst_vit_result_2</t>
+          <t>VIT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>device_prefer_gpu</t>
+        </is>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>output_model_result</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sst_vit_result_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>output_model_save_path</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>model/sst_vit_test_2.pth</t>
         </is>
@@ -749,7 +769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,32 +785,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>trained_results</t>
+          <t>avg_trained</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>trained_max</t>
+          <t>avg_train</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>trained_min</t>
+          <t>avg_test</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>untrained_results</t>
+          <t>avg_untrained</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>untrained_max</t>
+          <t>avg_untrained_train</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>untrained_min</t>
+          <t>avg_untrained_test</t>
         </is>
       </c>
     </row>
@@ -799,22 +819,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07004196763038635</v>
+        <v>0.1195368636399508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09366726875305176</v>
+        <v>0.1194767455259959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05445156618952751</v>
+        <v>0.1197172179818153</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07023992739617825</v>
+        <v>0.1183466915972531</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09456393867731094</v>
+        <v>0.1183278597891331</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05450471118092537</v>
+        <v>0.1184031870216131</v>
       </c>
     </row>
     <row r="3">
@@ -822,137 +842,68 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07007142327725888</v>
+        <v>0.1183906709775329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09369593113660812</v>
+        <v>0.1185142062604427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05446174740791321</v>
+        <v>0.1180200651288033</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07019838139414787</v>
+        <v>0.1183545677922666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09407638758420944</v>
+        <v>0.1182988528162241</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05442548915743828</v>
+        <v>0.1185217127203941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07019385397434234</v>
+        <v>0.1182322092354298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09387151151895523</v>
+        <v>0.1195121010144552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05459060519933701</v>
+        <v>0.1143925338983536</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07011643938720226</v>
+        <v>0.1185443596914411</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09388794749975204</v>
+        <v>0.1192621706674496</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05449264496564865</v>
+        <v>0.1163909267634153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07029493764042855</v>
+        <v>0.1180728850886226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09401628375053406</v>
+        <v>0.1182211761673291</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05469972640275955</v>
+        <v>0.1176280118525028</v>
       </c>
       <c r="E5" t="n">
-        <v>0.070098966807127</v>
+        <v>0.1184236062690616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09373018890619278</v>
+        <v>0.1194533010323842</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0545038990676403</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>70</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.07022016398608684</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09379326552152634</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.05470617115497589</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.07020522885024548</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.09401290863752365</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.05461164563894272</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>100</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.07020819805562496</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0939960852265358</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05459249019622803</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.07018831253051758</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.09392796456813812</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.05456054210662842</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>200</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.07020115755498409</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09400267899036407</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.05465942621231079</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.07039075188338756</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.09404829889535904</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0547582320868969</v>
+        <v>0.1153345219790936</v>
       </c>
     </row>
   </sheetData>
